--- a/excel/AI Agents for Data Analytics.xlsx
+++ b/excel/AI Agents for Data Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A214D9AE-8CD4-4433-9971-B4E1B0362D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{A214D9AE-8CD4-4433-9971-B4E1B0362D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{895B761B-D1C9-4237-80F7-CE14322D708C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C52C9E9D-717E-4650-AC67-8128ECBBAF05}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{C52C9E9D-717E-4650-AC67-8128ECBBAF05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>AI Agents in Data Analytics</t>
   </si>
@@ -75,18 +75,12 @@
     <t>Paid</t>
   </si>
   <si>
-    <t>Salesforce Tableau</t>
-  </si>
-  <si>
     <t>Qlik Sense</t>
   </si>
   <si>
     <t>AI-powered data visualization &amp; discovery</t>
   </si>
   <si>
-    <t>Qlik</t>
-  </si>
-  <si>
     <t>Sisense</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Microsoft’s BI tool with AI capabilities</t>
   </si>
   <si>
-    <t>Power BI</t>
-  </si>
-  <si>
     <t>Amazon QuickSight</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>Collaborative data science &amp; analytics platform</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>Alteryx</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
     <t>AI-powered BI and data visualization</t>
   </si>
   <si>
-    <t>IBM Cognos</t>
-  </si>
-  <si>
     <t>Looker Studio</t>
   </si>
   <si>
@@ -186,13 +171,70 @@
     <t>Python data science platform with AI capabilities</t>
   </si>
   <si>
-    <t>Anaconda</t>
-  </si>
-  <si>
     <t>Trifacta</t>
   </si>
   <si>
     <t>Data wrangling and AI-assisted data preparation</t>
+  </si>
+  <si>
+    <t>https://www.datarobot.com/</t>
+  </si>
+  <si>
+    <t>https://h2o.ai/</t>
+  </si>
+  <si>
+    <t>https://www.thoughtspot.com/</t>
+  </si>
+  <si>
+    <t>https://www.tableau.com/</t>
+  </si>
+  <si>
+    <t>https://www.qlik.com/us</t>
+  </si>
+  <si>
+    <t>https://www.sisense.com/</t>
+  </si>
+  <si>
+    <t>https://admin.google.com/ServiceNotAllowed?application=995920231026&amp;source=scrip&amp;continue=https://cloud.google.com/looker/</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/power-platform/products/power-bi/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/quicksight/</t>
+  </si>
+  <si>
+    <t>https://mode.com/</t>
+  </si>
+  <si>
+    <t>https://www.alteryx.com/</t>
+  </si>
+  <si>
+    <t>https://www.databricks.com/</t>
+  </si>
+  <si>
+    <t>https://www.domo.com/</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/products/cognos-analytics</t>
+  </si>
+  <si>
+    <t>https://admin.google.com/ServiceNotAllowed?application=810260081642&amp;source=scrip&amp;continue=https://lookerstudio.google.com/</t>
+  </si>
+  <si>
+    <t>https://www.knime.com/</t>
+  </si>
+  <si>
+    <t>https://altair.com/altair-rapidminer</t>
+  </si>
+  <si>
+    <t>https://www.dataiku.com/</t>
+  </si>
+  <si>
+    <t>https://www.anaconda.com/</t>
+  </si>
+  <si>
+    <t>https://www.alteryx.com/about-us/trifacta-is-now-alteryx-designer-cloud</t>
   </si>
 </sst>
 </file>
@@ -278,9 +320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +360,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -424,7 +466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -566,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D509AE-67BF-4FCF-B397-BB8C470765FC}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -632,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -646,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -660,255 +702,255 @@
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.datarobot.com/" xr:uid="{830AF4DC-C451-4E34-981D-5B2C2256B575}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://www.h2o.ai/" xr:uid="{4717837A-821E-4722-B55C-577F0CFCA1DE}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.thoughtspot.com/" xr:uid="{31129865-337F-4EE5-AD55-7327A10CA9B4}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.tableau.com/" xr:uid="{F22C3EA6-8265-4656-BE07-E5A49B060F31}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://www.qlik.com/" xr:uid="{AF6C336E-4D31-4A22-911E-B50651F923A3}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://www.sisense.com/" xr:uid="{7BB05D72-922E-49F2-BF3A-7FC27EBB0CD1}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://looker.com/" xr:uid="{26156B71-E104-47D9-A788-5CC27A9C673C}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://powerbi.microsoft.com/" xr:uid="{AD609B56-5F8B-4FA0-9294-A386BFF984C1}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://aws.amazon.com/quicksight/" xr:uid="{93B18643-8F20-480C-B2D9-7439C3AD1205}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://mode.com/" xr:uid="{DE0E7BE0-0A41-4C8D-9866-8CBDAF4D31FA}"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://www.alteryx.com/" xr:uid="{B0DD61A4-5DD5-40FE-8BDE-AE8D769E0CB2}"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://databricks.com/" xr:uid="{BF5F8CD6-74D5-4476-BC6E-DEB290F57C0C}"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://www.domo.com/" xr:uid="{0E31A054-A367-4D48-8B0C-9FAFE245BB7B}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://www.ibm.com/products/cognos-analytics" xr:uid="{BA5417E9-0953-4CF3-AA08-24F802298BD0}"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://lookerstudio.google.com/" xr:uid="{5DC5062D-4EB6-4269-AB10-638417DC38DA}"/>
-    <hyperlink ref="D18" r:id="rId16" display="https://www.knime.com/" xr:uid="{2ED22139-CDF6-405B-88E6-EA0499DD95A3}"/>
-    <hyperlink ref="D19" r:id="rId17" display="https://rapidminer.com/" xr:uid="{67C84862-6798-40B9-B6FE-E56497FDB42A}"/>
-    <hyperlink ref="D20" r:id="rId18" display="https://www.dataiku.com/" xr:uid="{796CF0DA-9121-4254-872A-EF4B9DB24235}"/>
-    <hyperlink ref="D21" r:id="rId19" display="https://www.anaconda.com/" xr:uid="{0D239B4F-2159-4A84-8FDA-8BC90C1A0ACE}"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://www.trifacta.com/" xr:uid="{B1B7DB4F-FD68-4A3E-82DE-88B986B6BD4A}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{830AF4DC-C451-4E34-981D-5B2C2256B575}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{4717837A-821E-4722-B55C-577F0CFCA1DE}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{31129865-337F-4EE5-AD55-7327A10CA9B4}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{F22C3EA6-8265-4656-BE07-E5A49B060F31}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{AF6C336E-4D31-4A22-911E-B50651F923A3}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{7BB05D72-922E-49F2-BF3A-7FC27EBB0CD1}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{26156B71-E104-47D9-A788-5CC27A9C673C}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{AD609B56-5F8B-4FA0-9294-A386BFF984C1}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{93B18643-8F20-480C-B2D9-7439C3AD1205}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{DE0E7BE0-0A41-4C8D-9866-8CBDAF4D31FA}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{B0DD61A4-5DD5-40FE-8BDE-AE8D769E0CB2}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{BF5F8CD6-74D5-4476-BC6E-DEB290F57C0C}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{0E31A054-A367-4D48-8B0C-9FAFE245BB7B}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{BA5417E9-0953-4CF3-AA08-24F802298BD0}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{5DC5062D-4EB6-4269-AB10-638417DC38DA}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{2ED22139-CDF6-405B-88E6-EA0499DD95A3}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{67C84862-6798-40B9-B6FE-E56497FDB42A}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{796CF0DA-9121-4254-872A-EF4B9DB24235}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{0D239B4F-2159-4A84-8FDA-8BC90C1A0ACE}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{B1B7DB4F-FD68-4A3E-82DE-88B986B6BD4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
